--- a/Config/ExcelTools/AudioConfig.xlsx
+++ b/Config/ExcelTools/AudioConfig.xlsx
@@ -15,8 +15,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1、普通背景音乐
+2、战斗背景音乐
+3、特效音</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -57,124 +81,97 @@
     <t>Audio/BGM/</t>
   </si>
   <si>
-    <t>BGM_1</t>
-  </si>
-  <si>
-    <t>BGM_2</t>
-  </si>
-  <si>
-    <t>BGM_3</t>
-  </si>
-  <si>
-    <t>BGM_4</t>
-  </si>
-  <si>
-    <t>BGM_5</t>
-  </si>
-  <si>
-    <t>BGM_6</t>
-  </si>
-  <si>
-    <t>BGM_7</t>
-  </si>
-  <si>
-    <t>BGM_8</t>
-  </si>
-  <si>
-    <t>BGM_9</t>
-  </si>
-  <si>
-    <t>BGM_10</t>
-  </si>
-  <si>
-    <t>BGM_11</t>
-  </si>
-  <si>
-    <t>BGM_12</t>
-  </si>
-  <si>
-    <t>BGM_13</t>
-  </si>
-  <si>
-    <t>BGM_14</t>
-  </si>
-  <si>
-    <t>BGM_15</t>
-  </si>
-  <si>
-    <t>BGM_16</t>
-  </si>
-  <si>
-    <t>BGM_17</t>
-  </si>
-  <si>
-    <t>BGM_18</t>
-  </si>
-  <si>
-    <t>BGM_19</t>
-  </si>
-  <si>
-    <t>BGM_20</t>
-  </si>
-  <si>
-    <t>BGM_21</t>
-  </si>
-  <si>
-    <t>BGM_22</t>
-  </si>
-  <si>
-    <t>BGM_23</t>
-  </si>
-  <si>
-    <t>BGM_24</t>
-  </si>
-  <si>
-    <t>BGM_25</t>
-  </si>
-  <si>
-    <t>BGM_26</t>
-  </si>
-  <si>
-    <t>BGM_27</t>
-  </si>
-  <si>
-    <t>BGM_28</t>
+    <t>陈致逸,HOYO-MiX - A Harmonious Rest 安宁的天光</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - A Letter From Afar 异乡的归书</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - A Tale of Two Dragons 特瓦林与杜林</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - Beckoning (Genshin Impact Main Theme Var.) 情不自禁</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - Genshin Impact Main Theme 原神</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - Hanachirusato 华散之缘</t>
+  </si>
+  <si>
+    <t>Audio/BattleBGM/</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - A Noble Sacrifice 高贵的诀别</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - All-Conquering Tide 不冻的激浪</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - Caelestinum Finale Termini  终天的闭幕曲</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - Charge! Fearless Warriors 冲啊！无畏的勇士</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - Chasing the Torrents 激流逐浪</t>
+  </si>
+  <si>
+    <t>陈致逸,HOYO-MiX - Dance with the Great Vortex 同漩涡共舞</t>
   </si>
   <si>
     <t>Audio/Effect/</t>
   </si>
   <si>
-    <t>Button_1</t>
-  </si>
-  <si>
-    <t>Button_2</t>
-  </si>
-  <si>
-    <t>Button_3</t>
-  </si>
-  <si>
-    <t>Button_4</t>
-  </si>
-  <si>
-    <t>Button_5</t>
-  </si>
-  <si>
-    <t>Button_6</t>
-  </si>
-  <si>
-    <t>Button_7</t>
-  </si>
-  <si>
-    <t>Button_8</t>
-  </si>
-  <si>
-    <t>Button_9</t>
-  </si>
-  <si>
-    <t>Button_10</t>
-  </si>
-  <si>
-    <t>Button_11</t>
+    <t>按钮_1</t>
+  </si>
+  <si>
+    <t>按钮_2</t>
+  </si>
+  <si>
+    <t>按钮_3</t>
+  </si>
+  <si>
+    <t>按钮_4</t>
+  </si>
+  <si>
+    <t>按钮_5</t>
+  </si>
+  <si>
+    <t>掠夺小的硬币</t>
+  </si>
+  <si>
+    <t>硬币落地</t>
+  </si>
+  <si>
+    <t>硬币落地2</t>
+  </si>
+  <si>
+    <t>硬币落地3</t>
+  </si>
+  <si>
+    <t>碰撞1</t>
+  </si>
+  <si>
+    <t>碰撞2</t>
+  </si>
+  <si>
+    <t>碰撞3</t>
+  </si>
+  <si>
+    <t>碰撞4</t>
+  </si>
+  <si>
+    <t>碰撞5</t>
+  </si>
+  <si>
+    <t>结束的钟声</t>
+  </si>
+  <si>
+    <t>硬币声</t>
+  </si>
+  <si>
+    <t>探险声</t>
   </si>
 </sst>
 </file>
@@ -182,12 +179,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +207,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -218,7 +223,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,36 +269,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -293,11 +299,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,14 +316,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -334,10 +331,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -349,13 +351,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,25 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,139 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,8 +548,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,8 +557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,7 +597,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,145 +650,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,15 +1147,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="21.0333333333333" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="76.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1169,7 +1174,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1217,7 +1222,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1">
@@ -1234,7 +1239,7 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1">
@@ -1251,7 +1256,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1">
@@ -1268,7 +1273,7 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1">
@@ -1285,7 +1290,7 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1">
@@ -1302,7 +1307,7 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1">
@@ -1317,13 +1322,13 @@
         <v>100007</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
         <v>19</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1334,13 +1339,13 @@
         <v>100008</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1351,13 +1356,13 @@
         <v>100009</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1368,13 +1373,13 @@
         <v>100010</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1385,13 +1390,13 @@
         <v>100011</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1402,13 +1407,13 @@
         <v>100012</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1419,13 +1424,13 @@
         <v>100013</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1436,13 +1441,13 @@
         <v>100014</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
         <v>26</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1453,13 +1458,13 @@
         <v>100015</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1470,13 +1475,13 @@
         <v>100016</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1487,13 +1492,13 @@
         <v>100017</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1504,13 +1509,13 @@
         <v>100018</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1521,13 +1526,13 @@
         <v>100019</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1538,13 +1543,13 @@
         <v>100020</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1555,13 +1560,13 @@
         <v>100021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1572,13 +1577,13 @@
         <v>100022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1589,13 +1594,13 @@
         <v>100023</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1606,13 +1611,13 @@
         <v>100024</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1623,13 +1628,13 @@
         <v>100025</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1640,13 +1645,13 @@
         <v>100026</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1657,13 +1662,13 @@
         <v>100027</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1674,13 +1679,13 @@
         <v>100028</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1691,189 +1696,20 @@
         <v>100029</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1">
-        <v>100030</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1">
-        <v>100031</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1">
-        <v>100032</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>100033</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>100034</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1">
-        <v>100035</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>100036</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1">
-        <v>100037</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1">
-        <v>100038</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1">
-        <v>100039</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
+      <c r="E32" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Config/ExcelTools/AudioConfig.xlsx
+++ b/Config/ExcelTools/AudioConfig.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>探险声</t>
+  </si>
+  <si>
+    <t>攻击力提升</t>
   </si>
 </sst>
 </file>
@@ -200,8 +203,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,92 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,24 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,31 +360,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,145 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,24 +545,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,6 +559,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,17 +607,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,13 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1702,6 +1705,23 @@
         <v>43</v>
       </c>
       <c r="E32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100030</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Config/ExcelTools/AudioConfig.xlsx
+++ b/Config/ExcelTools/AudioConfig.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>攻击力提升</t>
+  </si>
+  <si>
+    <t>碰撞6</t>
+  </si>
+  <si>
+    <t>碰撞7</t>
+  </si>
+  <si>
+    <t>碰撞8</t>
+  </si>
+  <si>
+    <t>碰撞9</t>
   </si>
 </sst>
 </file>
@@ -196,8 +208,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,24 +260,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,8 +291,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,91 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -354,19 +366,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,91 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,55 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,74 +557,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -645,6 +589,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1722,6 +1734,74 @@
         <v>44</v>
       </c>
       <c r="E33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>100031</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1">
+        <v>100032</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>100033</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>100034</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1">
         <v>3</v>
       </c>
     </row>
